--- a/total.xlsx
+++ b/total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIZAM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06777836-4A47-4383-9279-99044D487AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AE711-C2F7-4112-950C-ABB90E129962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="555" windowWidth="17475" windowHeight="13230" xr2:uid="{769A7B82-5E06-4DE7-96E3-C18E3F243151}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E142DE-C54B-4825-A686-55071F98B05B}">
-  <dimension ref="B11:E14"/>
+  <dimension ref="B11:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +450,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/total.xlsx
+++ b/total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIZAM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AE711-C2F7-4112-950C-ABB90E129962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759A02D-52D8-4582-BB6F-83AF751832A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="555" windowWidth="17475" windowHeight="13230" xr2:uid="{769A7B82-5E06-4DE7-96E3-C18E3F243151}"/>
   </bookViews>
@@ -33,6 +33,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NIZAM</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{AF26CE0F-C805-4368-A29A-3C3D8330E91A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NIZAM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+second command</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{614D0EF3-E1EC-47C6-9CDD-ABA3105EEA05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NIZAM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+first comment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
@@ -52,13 +110,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E142DE-C54B-4825-A686-55071F98B05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E142DE-C54B-4825-A686-55071F98B05B}">
   <dimension ref="B11:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,5 +537,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>